--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D736DA03-96F1-40E1-B60E-6C62FE3FB01F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02CC9AB7-5E1E-4AAC-AD01-D66A6A3F70CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Data Hora</t>
-  </si>
-  <si>
     <t>Chuva (mm)</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Vazão (m3/s)</t>
+  </si>
+  <si>
+    <t>Data-Hora</t>
   </si>
 </sst>
 </file>
@@ -358,27 +358,29 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02CC9AB7-5E1E-4AAC-AD01-D66A6A3F70CA}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DDB58792-CA6F-40E1-8CDC-1D47C40E13D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +575,259 @@
         <v>217.7</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45216.041805555556</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45216.083472222221</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45216.125138888892</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45216.166805555556</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45216.208472222221</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45216.250138888892</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45216.291805555556</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45216.333472222221</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45216.375138888892</v>
+      </c>
+      <c r="B35">
+        <v>1.2</v>
+      </c>
+      <c r="C35">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45216.416805555556</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45216.458472222221</v>
+      </c>
+      <c r="B37">
+        <v>0.8</v>
+      </c>
+      <c r="C37">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45216.500138888892</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45216.541805555556</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45216.583472222221</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45216.625138888892</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45216.666805555556</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45216.708472222221</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45216.750138888892</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45216.791805555556</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45216.833472222221</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45216.875138888892</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45216.916805555556</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45216.958472222221</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>168.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DDB58792-CA6F-40E1-8CDC-1D47C40E13D3}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB082048-2645-4263-A908-42C6DC58B273}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,194 +388,194 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45200.958333333336</v>
+        <v>45200</v>
       </c>
       <c r="C2">
-        <v>213.9</v>
+        <v>217.7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45200.916666666664</v>
+        <v>45200.041666666664</v>
       </c>
       <c r="C3">
-        <v>213.9</v>
+        <v>217.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45200.875</v>
+        <v>45200.083333333336</v>
       </c>
       <c r="C4">
-        <v>214.1</v>
+        <v>216.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45200.833333333336</v>
+        <v>45200.125</v>
       </c>
       <c r="C5">
-        <v>214.2</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45200.791666666664</v>
+        <v>45200.166666666664</v>
       </c>
       <c r="C6">
-        <v>214.4</v>
+        <v>216.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45200.75</v>
+        <v>45200.208333333336</v>
       </c>
       <c r="C7">
-        <v>214.3</v>
+        <v>215.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45200.708333333336</v>
+        <v>45200.25</v>
       </c>
       <c r="C8">
-        <v>214</v>
+        <v>215.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45200.666666666664</v>
+        <v>45200.291666666664</v>
       </c>
       <c r="C9">
-        <v>213.8</v>
+        <v>215.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45200.625</v>
+        <v>45200.333333333336</v>
       </c>
       <c r="C10">
-        <v>213.9</v>
+        <v>215.6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45200.583333333336</v>
+        <v>45200.375</v>
       </c>
       <c r="C11">
-        <v>214.2</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45200.541666666664</v>
+        <v>45200.416666666664</v>
       </c>
       <c r="C12">
-        <v>214.5</v>
+        <v>215.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45200.5</v>
+        <v>45200.458333333336</v>
       </c>
       <c r="C13">
-        <v>214.8</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45200.458333333336</v>
+        <v>45200.5</v>
       </c>
       <c r="C14">
-        <v>215.2</v>
+        <v>214.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45200.416666666664</v>
+        <v>45200.541666666664</v>
       </c>
       <c r="C15">
-        <v>215.3</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45200.375</v>
+        <v>45200.583333333336</v>
       </c>
       <c r="C16">
-        <v>215.5</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45200.333333333336</v>
+        <v>45200.625</v>
       </c>
       <c r="C17">
-        <v>215.6</v>
+        <v>213.9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45200.291666666664</v>
+        <v>45200.666666666664</v>
       </c>
       <c r="C18">
-        <v>215.7</v>
+        <v>213.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45200.25</v>
+        <v>45200.708333333336</v>
       </c>
       <c r="C19">
-        <v>215.9</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45200.208333333336</v>
+        <v>45200.75</v>
       </c>
       <c r="C20">
-        <v>215.9</v>
+        <v>214.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45200.166666666664</v>
+        <v>45200.791666666664</v>
       </c>
       <c r="C21">
-        <v>216.2</v>
+        <v>214.4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45200.125</v>
+        <v>45200.833333333336</v>
       </c>
       <c r="C22">
-        <v>216.5</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45200.083333333336</v>
+        <v>45200.875</v>
       </c>
       <c r="C23">
-        <v>216.8</v>
+        <v>214.1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45200.041666666664</v>
+        <v>45200.916666666664</v>
       </c>
       <c r="C24">
-        <v>217.2</v>
+        <v>213.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45200</v>
+        <v>45200.958333333336</v>
       </c>
       <c r="C25">
-        <v>217.7</v>
+        <v>213.9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +831,120 @@
         <v>168.8</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45217.000138888892</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45217.041805555556</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45217.083472222221</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45217.125138888892</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45217.166805555556</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45217.208472222221</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45217.250138888892</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>167.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45217.291805555556</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45217.333472222221</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>167.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45217.375138888892</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB082048-2645-4263-A908-42C6DC58B273}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B4D170E9-AA3D-4481-AE11-83D6A94A24EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>166.8</t>
+  </si>
+  <si>
+    <t>166.7</t>
+  </si>
+  <si>
+    <t>166.6</t>
+  </si>
+  <si>
+    <t>166.3</t>
+  </si>
+  <si>
+    <t>166.1</t>
   </si>
 </sst>
 </file>
@@ -358,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +956,83 @@
         <v>167</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45217.416805555556</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45217.458472222221</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45217.500138888892</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45217.541805555556</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45217.583472222221</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45217.625138888892</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45217.666805555556</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B4D170E9-AA3D-4481-AE11-83D6A94A24EB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0DA486E1-0396-4B9C-B197-AE496D46023D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>Data-Hora</t>
-  </si>
-  <si>
-    <t>166.8</t>
-  </si>
-  <si>
-    <t>166.7</t>
-  </si>
-  <si>
-    <t>166.6</t>
-  </si>
-  <si>
-    <t>166.3</t>
-  </si>
-  <si>
-    <t>166.1</t>
   </si>
 </sst>
 </file>
@@ -87,12 +72,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,17 +359,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -394,7 +380,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -405,7 +391,7 @@
       <c r="A2" s="1">
         <v>45200</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>217.7</v>
       </c>
     </row>
@@ -413,7 +399,7 @@
       <c r="A3" s="1">
         <v>45200.041666666664</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>217.2</v>
       </c>
     </row>
@@ -421,7 +407,7 @@
       <c r="A4" s="1">
         <v>45200.083333333336</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>216.8</v>
       </c>
     </row>
@@ -429,7 +415,7 @@
       <c r="A5" s="1">
         <v>45200.125</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>216.5</v>
       </c>
     </row>
@@ -437,7 +423,7 @@
       <c r="A6" s="1">
         <v>45200.166666666664</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>216.2</v>
       </c>
     </row>
@@ -445,7 +431,7 @@
       <c r="A7" s="1">
         <v>45200.208333333336</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>215.9</v>
       </c>
     </row>
@@ -453,7 +439,7 @@
       <c r="A8" s="1">
         <v>45200.25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>215.9</v>
       </c>
     </row>
@@ -461,7 +447,7 @@
       <c r="A9" s="1">
         <v>45200.291666666664</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>215.7</v>
       </c>
     </row>
@@ -469,7 +455,7 @@
       <c r="A10" s="1">
         <v>45200.333333333336</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>215.6</v>
       </c>
     </row>
@@ -477,7 +463,7 @@
       <c r="A11" s="1">
         <v>45200.375</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>215.5</v>
       </c>
     </row>
@@ -485,7 +471,7 @@
       <c r="A12" s="1">
         <v>45200.416666666664</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>215.3</v>
       </c>
     </row>
@@ -493,7 +479,7 @@
       <c r="A13" s="1">
         <v>45200.458333333336</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>215.2</v>
       </c>
     </row>
@@ -501,7 +487,7 @@
       <c r="A14" s="1">
         <v>45200.5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>214.8</v>
       </c>
     </row>
@@ -509,7 +495,7 @@
       <c r="A15" s="1">
         <v>45200.541666666664</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>214.5</v>
       </c>
     </row>
@@ -517,7 +503,7 @@
       <c r="A16" s="1">
         <v>45200.583333333336</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>214.2</v>
       </c>
     </row>
@@ -525,7 +511,7 @@
       <c r="A17" s="1">
         <v>45200.625</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>213.9</v>
       </c>
     </row>
@@ -533,7 +519,7 @@
       <c r="A18" s="1">
         <v>45200.666666666664</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>213.8</v>
       </c>
     </row>
@@ -541,7 +527,7 @@
       <c r="A19" s="1">
         <v>45200.708333333336</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>214</v>
       </c>
     </row>
@@ -549,7 +535,7 @@
       <c r="A20" s="1">
         <v>45200.75</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>214.3</v>
       </c>
     </row>
@@ -557,7 +543,7 @@
       <c r="A21" s="1">
         <v>45200.791666666664</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>214.4</v>
       </c>
     </row>
@@ -565,7 +551,7 @@
       <c r="A22" s="1">
         <v>45200.833333333336</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>214.2</v>
       </c>
     </row>
@@ -573,7 +559,7 @@
       <c r="A23" s="1">
         <v>45200.875</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>214.1</v>
       </c>
     </row>
@@ -581,7 +567,7 @@
       <c r="A24" s="1">
         <v>45200.916666666664</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>213.9</v>
       </c>
     </row>
@@ -589,7 +575,7 @@
       <c r="A25" s="1">
         <v>45200.958333333336</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>213.9</v>
       </c>
     </row>
@@ -600,7 +586,7 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>169.2</v>
       </c>
     </row>
@@ -611,7 +597,7 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>169.1</v>
       </c>
     </row>
@@ -622,7 +608,7 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>169.1</v>
       </c>
     </row>
@@ -633,7 +619,7 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>169.1</v>
       </c>
     </row>
@@ -644,7 +630,7 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>169.2</v>
       </c>
     </row>
@@ -655,7 +641,7 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>169.4</v>
       </c>
     </row>
@@ -666,7 +652,7 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>169.3</v>
       </c>
     </row>
@@ -677,7 +663,7 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>169.1</v>
       </c>
     </row>
@@ -688,7 +674,7 @@
       <c r="B35">
         <v>1.2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>169.3</v>
       </c>
     </row>
@@ -699,7 +685,7 @@
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>169.9</v>
       </c>
     </row>
@@ -710,7 +696,7 @@
       <c r="B37">
         <v>0.8</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>169.7</v>
       </c>
     </row>
@@ -718,10 +704,10 @@
       <c r="A38" s="1">
         <v>45216.500138888892</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
         <v>169.4</v>
       </c>
     </row>
@@ -729,10 +715,10 @@
       <c r="A39" s="1">
         <v>45216.541805555556</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
         <v>169.5</v>
       </c>
     </row>
@@ -740,10 +726,10 @@
       <c r="A40" s="1">
         <v>45216.583472222221</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
         <v>169.2</v>
       </c>
     </row>
@@ -751,10 +737,10 @@
       <c r="A41" s="1">
         <v>45216.625138888892</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
         <v>168.9</v>
       </c>
     </row>
@@ -762,10 +748,10 @@
       <c r="A42" s="1">
         <v>45216.666805555556</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
         <v>168.8</v>
       </c>
     </row>
@@ -773,10 +759,10 @@
       <c r="A43" s="1">
         <v>45216.708472222221</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
         <v>168.9</v>
       </c>
     </row>
@@ -784,10 +770,10 @@
       <c r="A44" s="1">
         <v>45216.750138888892</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
         <v>168.7</v>
       </c>
     </row>
@@ -795,10 +781,10 @@
       <c r="A45" s="1">
         <v>45216.791805555556</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
         <v>168.6</v>
       </c>
     </row>
@@ -806,10 +792,10 @@
       <c r="A46" s="1">
         <v>45216.833472222221</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
         <v>168.6</v>
       </c>
     </row>
@@ -817,10 +803,10 @@
       <c r="A47" s="1">
         <v>45216.875138888892</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
         <v>168.8</v>
       </c>
     </row>
@@ -828,10 +814,10 @@
       <c r="A48" s="1">
         <v>45216.916805555556</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
         <v>168.8</v>
       </c>
     </row>
@@ -839,10 +825,10 @@
       <c r="A49" s="1">
         <v>45216.958472222221</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
         <v>168.8</v>
       </c>
     </row>
@@ -850,7 +836,7 @@
       <c r="A50" s="1">
         <v>45217.000138888892</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -861,7 +847,7 @@
       <c r="A51" s="1">
         <v>45217.041805555556</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51" s="2">
@@ -872,7 +858,7 @@
       <c r="A52" s="1">
         <v>45217.083472222221</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="C52" s="2">
@@ -883,7 +869,7 @@
       <c r="A53" s="1">
         <v>45217.125138888892</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>0</v>
       </c>
       <c r="C53" s="2">
@@ -894,7 +880,7 @@
       <c r="A54" s="1">
         <v>45217.166805555556</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -905,7 +891,7 @@
       <c r="A55" s="1">
         <v>45217.208472222221</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>0</v>
       </c>
       <c r="C55" s="2">
@@ -916,7 +902,7 @@
       <c r="A56" s="1">
         <v>45217.250138888892</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>0</v>
       </c>
       <c r="C56" s="2">
@@ -927,7 +913,7 @@
       <c r="A57" s="1">
         <v>45217.291805555556</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -938,7 +924,7 @@
       <c r="A58" s="1">
         <v>45217.333472222221</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="C58" s="2">
@@ -949,7 +935,7 @@
       <c r="A59" s="1">
         <v>45217.375138888892</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="2">
@@ -960,77 +946,275 @@
       <c r="A60" s="1">
         <v>45217.416805555556</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>4</v>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>166.8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45217.458472222221</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>166.7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45217.500138888892</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>166.6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45217.541805555556</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>7</v>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>166.3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45217.583472222221</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>166.1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45217.625138888892</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>166.1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45217.666805555556</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45217.708472222221</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45217.750138888892</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45217.791805555556</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45217.833472222221</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45217.875138888892</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45217.916805555556</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45217.958472222221</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45218.000138888892</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45218.041805555556</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45218.083472222221</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45218.125138888892</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45218.166805555556</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45218.208472222221</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45218.250138888892</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45218.291805555556</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45218.333472222221</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45218.375138888892</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>166.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45218.416805555556</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>166.1</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0DA486E1-0396-4B9C-B197-AE496D46023D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A053567B-9C4D-4599-ABB2-065549DA17C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1217,61 @@
         <v>166.1</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45218.458472222221</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45218.500138888892</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45218.541805555556</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45218.583472222221</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45218.625138888892</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>166.5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A053567B-9C4D-4599-ABB2-065549DA17C3}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE379DDF-D496-4F03-BDE0-D4820409BFE7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,7 @@
       <c r="B85" s="3">
         <v>0</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>166.3</v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       <c r="B86" s="3">
         <v>0</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>166.6</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       <c r="B87" s="3">
         <v>0</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>166.9</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       <c r="B88" s="3">
         <v>0</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>166.7</v>
       </c>
     </row>
@@ -1268,9 +1268,337 @@
       <c r="B89" s="3">
         <v>0</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>166.5</v>
       </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45218.666805555556</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45218.708472222221</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45218.750138888892</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45218.791805555556</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45218.833472222221</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45218.875138888892</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45218.916805555556</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45218.958472222221</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45219.000138888892</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>166.6</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45219.041805555556</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>166.8</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45219.083472222221</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>166.7</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45219.125138888892</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>166.7</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45219.166805555556</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>166.4</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45219.208472222221</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>166</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45219.250138888892</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>165.5</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45219.291805555556</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>165.2</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45219.333472222221</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
+        <v>165.1</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45219.375138888892</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
+        <v>164.8</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45219.416805555556</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>164.6</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45219.458472222221</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
+        <v>164.5</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45219.500138888892</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>164.3</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45219.541805555556</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>164.2</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45219.583472222221</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2">
+        <v>163.9</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45219.625138888892</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>164.4</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45219.666805555556</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>164.2</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45219.708472222221</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2">
+        <v>164.1</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45219.750138888892</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2">
+        <v>164.6</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45219.791805555556</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C117" s="2">
+        <v>164.2</v>
+      </c>
+      <c r="D117" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE379DDF-D496-4F03-BDE0-D4820409BFE7}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4192371D-DD3A-4436-853B-8E9183D8E21C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>164.7</t>
+  </si>
+  <si>
+    <t>164.3</t>
+  </si>
+  <si>
+    <t>164.1</t>
+  </si>
+  <si>
+    <t>164.2</t>
   </si>
 </sst>
 </file>
@@ -359,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1612,237 @@
       </c>
       <c r="D117" s="2"/>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45219.833472222221</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45219.875138888892</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45219.916805555556</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45219.958472222221</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45220.000138888892</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>164.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45220.041805555556</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45220.083472222221</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45220.125138888892</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>163.19999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45220.166805555556</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45220.208472222221</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45220.250138888892</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>161.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45220.291805555556</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>161.69999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45220.333472222221</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>161.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45220.375138888892</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45220.416805555556</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45220.458472222221</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45220.500138888892</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45220.541805555556</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45220.583472222221</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45220.625138888892</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45220.666805555556</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>160.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4192371D-DD3A-4436-853B-8E9183D8E21C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2168386-6F23-4174-A9BC-9459096616B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,6 +1843,83 @@
         <v>160.1</v>
       </c>
     </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45220.708472222221</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45220.750138888892</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45220.791805555556</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45220.833472222221</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45220.875138888892</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45220.916805555556</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45220.958472222221</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>159.9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2168386-6F23-4174-A9BC-9459096616B4}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D60A7103-11B5-4C2B-9D98-03256AACDCED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,6 +1920,380 @@
         <v>159.9</v>
       </c>
     </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45221.000138888892</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45221.041805555556</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45221.083472222221</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45221.125138888892</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45221.166805555556</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45221.208472222221</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45221.250138888892</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45221.291805555556</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45221.333472222221</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45221.375138888892</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45221.416805555556</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45221.458472222221</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>156.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45221.500138888892</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="C158">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45221.541805555556</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C159">
+        <v>159.19999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45221.583472222221</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45221.625138888892</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45221.666805555556</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45221.708472222221</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45221.750138888892</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45221.791805555556</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45221.833472222221</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45221.875138888892</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45221.916805555556</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45221.958472222221</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>159.19999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45222.000138888892</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45222.041805555556</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45222.083472222221</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45222.125138888892</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45222.166805555556</v>
+      </c>
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45222.208472222221</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45222.250138888892</v>
+      </c>
+      <c r="B176" s="3">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45222.291805555556</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45222.333472222221</v>
+      </c>
+      <c r="B178" s="3">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45222.375138888892</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>158.80000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D60A7103-11B5-4C2B-9D98-03256AACDCED}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECD3D2D7-42E4-4ACB-A43A-BAFFA4176FC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,6 +2294,94 @@
         <v>158.80000000000001</v>
       </c>
     </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45222.416805555556</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45222.458472222221</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45222.500138888892</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45222.541805555556</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45222.583472222221</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45222.625138888892</v>
+      </c>
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45222.666805555556</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45222.708472222221</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>160.69999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECD3D2D7-42E4-4ACB-A43A-BAFFA4176FC9}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25EE49A6-CF7F-4A6E-ACC2-D02645CE7170}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,6 +2382,72 @@
         <v>160.69999999999999</v>
       </c>
     </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45222.750138888892</v>
+      </c>
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45222.791805555556</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45222.833472222221</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45222.875138888892</v>
+      </c>
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45222.916805555556</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45222.958472222221</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>160.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25EE49A6-CF7F-4A6E-ACC2-D02645CE7170}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{623B206E-8A25-416B-9BAA-68382EA88796}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,6 +2448,116 @@
         <v>160.1</v>
       </c>
     </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45223.000138888892</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45223.041805555556</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45223.083472222221</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45223.125138888892</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45223.166805555556</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45223.208472222221</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45223.250138888892</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45223.291805555556</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45223.333472222221</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45223.375138888892</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>160.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{623B206E-8A25-416B-9BAA-68382EA88796}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0B82A43-90E8-4CBE-949B-C66E03F3D4AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,6 +2558,94 @@
         <v>160.1</v>
       </c>
     </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45223.416805555556</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45223.458472222221</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45223.500138888892</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45223.541805555556</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45223.583472222221</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45223.625138888892</v>
+      </c>
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45223.666805555556</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45223.708472222221</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>

--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0B82A43-90E8-4CBE-949B-C66E03F3D4AD}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4EE5D273-106B-4F8C-860D-2C316E99F89D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -50,15 +50,45 @@
   <si>
     <t>164.2</t>
   </si>
+  <si>
+    <t>158.8</t>
+  </si>
+  <si>
+    <t>158.7</t>
+  </si>
+  <si>
+    <t>158.5</t>
+  </si>
+  <si>
+    <t>158.6</t>
+  </si>
+  <si>
+    <t>158.2</t>
+  </si>
+  <si>
+    <t>158.1</t>
+  </si>
+  <si>
+    <t>158.4</t>
+  </si>
+  <si>
+    <t>159.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,7 +120,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="G243" sqref="G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -389,7 +421,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -595,7 +627,7 @@
       <c r="A27" s="1">
         <v>45216.041805555556</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="2">
@@ -606,7 +638,7 @@
       <c r="A28" s="1">
         <v>45216.083472222221</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" s="2">
@@ -617,7 +649,7 @@
       <c r="A29" s="1">
         <v>45216.125138888892</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="2">
@@ -628,7 +660,7 @@
       <c r="A30" s="1">
         <v>45216.166805555556</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" s="2">
@@ -639,7 +671,7 @@
       <c r="A31" s="1">
         <v>45216.208472222221</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -650,7 +682,7 @@
       <c r="A32" s="1">
         <v>45216.250138888892</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
@@ -661,7 +693,7 @@
       <c r="A33" s="1">
         <v>45216.291805555556</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="2">
@@ -672,7 +704,7 @@
       <c r="A34" s="1">
         <v>45216.333472222221</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -683,7 +715,7 @@
       <c r="A35" s="1">
         <v>45216.375138888892</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>1.2</v>
       </c>
       <c r="C35" s="2">
@@ -694,7 +726,7 @@
       <c r="A36" s="1">
         <v>45216.416805555556</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -705,7 +737,7 @@
       <c r="A37" s="1">
         <v>45216.458472222221</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0.8</v>
       </c>
       <c r="C37" s="2">
@@ -1663,7 +1695,7 @@
       <c r="B122" s="3">
         <v>0</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <v>164.2</v>
       </c>
     </row>
@@ -1674,7 +1706,7 @@
       <c r="B123" s="3">
         <v>0</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>164</v>
       </c>
     </row>
@@ -1685,7 +1717,7 @@
       <c r="B124" s="3">
         <v>0</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
         <v>163.5</v>
       </c>
     </row>
@@ -1696,7 +1728,7 @@
       <c r="B125" s="3">
         <v>0</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
         <v>163.19999999999999</v>
       </c>
     </row>
@@ -1707,7 +1739,7 @@
       <c r="B126" s="3">
         <v>0</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
         <v>162.6</v>
       </c>
     </row>
@@ -1718,7 +1750,7 @@
       <c r="B127" s="3">
         <v>0</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
         <v>162.19999999999999</v>
       </c>
     </row>
@@ -1729,7 +1761,7 @@
       <c r="B128" s="3">
         <v>0</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>161.9</v>
       </c>
     </row>
@@ -1740,7 +1772,7 @@
       <c r="B129" s="3">
         <v>0</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>161.69999999999999</v>
       </c>
     </row>
@@ -1751,7 +1783,7 @@
       <c r="B130" s="3">
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>161.4</v>
       </c>
     </row>
@@ -1762,7 +1794,7 @@
       <c r="B131" s="3">
         <v>0</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>161.1</v>
       </c>
     </row>
@@ -1773,7 +1805,7 @@
       <c r="B132" s="3">
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>160.80000000000001</v>
       </c>
     </row>
@@ -1784,7 +1816,7 @@
       <c r="B133" s="3">
         <v>0</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>160.6</v>
       </c>
     </row>
@@ -1795,7 +1827,7 @@
       <c r="B134" s="3">
         <v>0</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>160.19999999999999</v>
       </c>
     </row>
@@ -1806,7 +1838,7 @@
       <c r="B135" s="3">
         <v>0</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>159.9</v>
       </c>
     </row>
@@ -1817,7 +1849,7 @@
       <c r="B136" s="3">
         <v>0</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>160</v>
       </c>
     </row>
@@ -1828,7 +1860,7 @@
       <c r="B137" s="3">
         <v>0</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -1839,7 +1871,7 @@
       <c r="B138" s="3">
         <v>0</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -1850,7 +1882,7 @@
       <c r="B139" s="3">
         <v>0</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -1861,7 +1893,7 @@
       <c r="B140" s="3">
         <v>0</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>160.19999999999999</v>
       </c>
     </row>
@@ -1872,7 +1904,7 @@
       <c r="B141" s="3">
         <v>0</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>159.9</v>
       </c>
     </row>
@@ -1883,7 +1915,7 @@
       <c r="B142" s="3">
         <v>0</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>160</v>
       </c>
     </row>
@@ -1894,7 +1926,7 @@
       <c r="B143" s="3">
         <v>0</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
         <v>159.9</v>
       </c>
     </row>
@@ -1905,7 +1937,7 @@
       <c r="B144" s="3">
         <v>0</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>160</v>
       </c>
     </row>
@@ -1916,7 +1948,7 @@
       <c r="B145" s="3">
         <v>0</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>159.9</v>
       </c>
     </row>
@@ -1927,7 +1959,7 @@
       <c r="B146" s="3">
         <v>0</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>159.6</v>
       </c>
     </row>
@@ -1938,7 +1970,7 @@
       <c r="B147" s="3">
         <v>0</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>159.4</v>
       </c>
     </row>
@@ -1949,7 +1981,7 @@
       <c r="B148" s="3">
         <v>0</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>159</v>
       </c>
     </row>
@@ -1960,7 +1992,7 @@
       <c r="B149" s="3">
         <v>0</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>158.69999999999999</v>
       </c>
     </row>
@@ -1971,7 +2003,7 @@
       <c r="B150" s="3">
         <v>0</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>158.5</v>
       </c>
     </row>
@@ -1982,7 +2014,7 @@
       <c r="B151" s="3">
         <v>0</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
         <v>158.19999999999999</v>
       </c>
     </row>
@@ -1993,7 +2025,7 @@
       <c r="B152" s="3">
         <v>0</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>158.1</v>
       </c>
     </row>
@@ -2004,7 +2036,7 @@
       <c r="B153" s="3">
         <v>0</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>158</v>
       </c>
     </row>
@@ -2015,7 +2047,7 @@
       <c r="B154" s="3">
         <v>0</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>157.69999999999999</v>
       </c>
     </row>
@@ -2026,7 +2058,7 @@
       <c r="B155" s="3">
         <v>0</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>157.4</v>
       </c>
     </row>
@@ -2037,7 +2069,7 @@
       <c r="B156" s="3">
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>157</v>
       </c>
     </row>
@@ -2048,7 +2080,7 @@
       <c r="B157" s="3">
         <v>0</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>156.9</v>
       </c>
     </row>
@@ -2059,7 +2091,7 @@
       <c r="B158" s="3">
         <v>2.6</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>158.1</v>
       </c>
     </row>
@@ -2070,7 +2102,7 @@
       <c r="B159" s="3">
         <v>2.8</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>159.19999999999999</v>
       </c>
     </row>
@@ -2081,7 +2113,7 @@
       <c r="B160" s="3">
         <v>1</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>160.6</v>
       </c>
     </row>
@@ -2092,7 +2124,7 @@
       <c r="B161" s="3">
         <v>0</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>161.19999999999999</v>
       </c>
     </row>
@@ -2103,7 +2135,7 @@
       <c r="B162" s="3">
         <v>0</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>161.19999999999999</v>
       </c>
     </row>
@@ -2114,7 +2146,7 @@
       <c r="B163" s="3">
         <v>0</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>160.9</v>
       </c>
     </row>
@@ -2125,7 +2157,7 @@
       <c r="B164" s="3">
         <v>0</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>160.5</v>
       </c>
     </row>
@@ -2136,7 +2168,7 @@
       <c r="B165" s="3">
         <v>0</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="2">
         <v>160</v>
       </c>
     </row>
@@ -2147,7 +2179,7 @@
       <c r="B166" s="3">
         <v>0</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>159.6</v>
       </c>
     </row>
@@ -2158,7 +2190,7 @@
       <c r="B167" s="3">
         <v>0</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>159.30000000000001</v>
       </c>
     </row>
@@ -2169,7 +2201,7 @@
       <c r="B168" s="3">
         <v>0</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>159.4</v>
       </c>
     </row>
@@ -2180,7 +2212,7 @@
       <c r="B169" s="3">
         <v>0</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>159.19999999999999</v>
       </c>
     </row>
@@ -2191,7 +2223,7 @@
       <c r="B170" s="3">
         <v>0</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>159.1</v>
       </c>
     </row>
@@ -2202,7 +2234,7 @@
       <c r="B171" s="3">
         <v>0</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>159.30000000000001</v>
       </c>
     </row>
@@ -2213,7 +2245,7 @@
       <c r="B172" s="3">
         <v>0</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="2">
         <v>159.4</v>
       </c>
     </row>
@@ -2224,7 +2256,7 @@
       <c r="B173" s="3">
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="2">
         <v>159.4</v>
       </c>
     </row>
@@ -2235,7 +2267,7 @@
       <c r="B174" s="3">
         <v>0</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="2">
         <v>159.4</v>
       </c>
     </row>
@@ -2246,7 +2278,7 @@
       <c r="B175" s="3">
         <v>0</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="2">
         <v>159.30000000000001</v>
       </c>
     </row>
@@ -2257,7 +2289,7 @@
       <c r="B176" s="3">
         <v>0</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="2">
         <v>159</v>
       </c>
     </row>
@@ -2268,7 +2300,7 @@
       <c r="B177" s="3">
         <v>0</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="2">
         <v>158.9</v>
       </c>
     </row>
@@ -2279,7 +2311,7 @@
       <c r="B178" s="3">
         <v>0</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>159.1</v>
       </c>
     </row>
@@ -2290,7 +2322,7 @@
       <c r="B179" s="3">
         <v>0</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>158.80000000000001</v>
       </c>
     </row>
@@ -2301,7 +2333,7 @@
       <c r="B180" s="3">
         <v>0</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>159.6</v>
       </c>
     </row>
@@ -2312,7 +2344,7 @@
       <c r="B181" s="3">
         <v>0</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="2">
         <v>160.4</v>
       </c>
     </row>
@@ -2323,7 +2355,7 @@
       <c r="B182" s="3">
         <v>0</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>160.9</v>
       </c>
     </row>
@@ -2334,7 +2366,7 @@
       <c r="B183" s="3">
         <v>0</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>160.9</v>
       </c>
     </row>
@@ -2345,7 +2377,7 @@
       <c r="B184" s="3">
         <v>0</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>160.9</v>
       </c>
     </row>
@@ -2356,7 +2388,7 @@
       <c r="B185" s="3">
         <v>0</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>160.9</v>
       </c>
     </row>
@@ -2367,7 +2399,7 @@
       <c r="B186" s="3">
         <v>0</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="2">
         <v>160.80000000000001</v>
       </c>
     </row>
@@ -2378,7 +2410,7 @@
       <c r="B187" s="3">
         <v>0</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>160.69999999999999</v>
       </c>
     </row>
@@ -2389,7 +2421,7 @@
       <c r="B188" s="3">
         <v>0</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>160.6</v>
       </c>
     </row>
@@ -2400,7 +2432,7 @@
       <c r="B189" s="3">
         <v>0</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>160.6</v>
       </c>
     </row>
@@ -2411,7 +2443,7 @@
       <c r="B190" s="3">
         <v>0</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>160.30000000000001</v>
       </c>
     </row>
@@ -2422,7 +2454,7 @@
       <c r="B191" s="3">
         <v>0</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>160.19999999999999</v>
       </c>
     </row>
@@ -2433,7 +2465,7 @@
       <c r="B192" s="3">
         <v>0</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>160.19999999999999</v>
       </c>
     </row>
@@ -2444,7 +2476,7 @@
       <c r="B193" s="3">
         <v>0</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2455,7 +2487,7 @@
       <c r="B194" s="3">
         <v>0</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2466,7 +2498,7 @@
       <c r="B195" s="3">
         <v>0</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2477,7 +2509,7 @@
       <c r="B196" s="3">
         <v>0</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2488,7 +2520,7 @@
       <c r="B197" s="3">
         <v>0</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2499,7 +2531,7 @@
       <c r="B198" s="3">
         <v>0</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="2">
         <v>160.19999999999999</v>
       </c>
     </row>
@@ -2510,7 +2542,7 @@
       <c r="B199" s="3">
         <v>0</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="2">
         <v>160.30000000000001</v>
       </c>
     </row>
@@ -2521,7 +2553,7 @@
       <c r="B200" s="3">
         <v>0</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="2">
         <v>160.4</v>
       </c>
     </row>
@@ -2532,7 +2564,7 @@
       <c r="B201" s="3">
         <v>0</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="2">
         <v>160.4</v>
       </c>
     </row>
@@ -2543,7 +2575,7 @@
       <c r="B202" s="3">
         <v>0</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>160.30000000000001</v>
       </c>
     </row>
@@ -2554,7 +2586,7 @@
       <c r="B203" s="3">
         <v>0</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2565,7 +2597,7 @@
       <c r="B204" s="3">
         <v>0</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="2">
         <v>160</v>
       </c>
     </row>
@@ -2576,7 +2608,7 @@
       <c r="B205" s="3">
         <v>0</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="2">
         <v>159.80000000000001</v>
       </c>
     </row>
@@ -2587,7 +2619,7 @@
       <c r="B206" s="3">
         <v>0</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="2">
         <v>159.80000000000001</v>
       </c>
     </row>
@@ -2598,7 +2630,7 @@
       <c r="B207" s="3">
         <v>0</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>159.80000000000001</v>
       </c>
     </row>
@@ -2609,7 +2641,7 @@
       <c r="B208" s="3">
         <v>0</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="2">
         <v>159.80000000000001</v>
       </c>
     </row>
@@ -2620,7 +2652,7 @@
       <c r="B209" s="3">
         <v>0</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="2">
         <v>159.9</v>
       </c>
     </row>
@@ -2631,7 +2663,7 @@
       <c r="B210" s="3">
         <v>0</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>160.1</v>
       </c>
     </row>
@@ -2642,14 +2674,532 @@
       <c r="B211" s="3">
         <v>0</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45223.750138888892</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45223.791805555556</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="2">
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45223.833472222221</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="2">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45223.875138888892</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45223.916805555556</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+      <c r="C216" s="2">
+        <v>159.69999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45223.958472222221</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2">
+        <v>159.69999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45224.000138888892</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45224.041805555556</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45224.083472222221</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+      <c r="C220" s="2">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45224.125138888892</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0</v>
+      </c>
+      <c r="C221" s="2">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45224.166805555556</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+      <c r="C222" s="2">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45224.208472222221</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223" s="2">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45224.250138888892</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45224.291805555556</v>
+      </c>
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45224.333472222221</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45224.375138888892</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45224.416805555556</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45224.458472222221</v>
+      </c>
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+      <c r="C229" s="2">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45224.500138888892</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45224.541805555556</v>
+      </c>
+      <c r="B231" s="3">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45224.583472222221</v>
+      </c>
+      <c r="B232" s="3">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45224.625138888892</v>
+      </c>
+      <c r="B233" s="3">
+        <v>0</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45224.666805555556</v>
+      </c>
+      <c r="B234" s="3">
+        <v>0</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45224.708472222221</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45224.750138888892</v>
+      </c>
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45224.791805555556</v>
+      </c>
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45224.833472222221</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45224.875138888892</v>
+      </c>
+      <c r="B239" s="3">
+        <v>0</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45224.916805555556</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45224.958472222221</v>
+      </c>
+      <c r="B241" s="3">
+        <v>0</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45225.000138888892</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45225.041805555556</v>
+      </c>
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45225.083472222221</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>157.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45225.125138888892</v>
+      </c>
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45225.166805555556</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45225.208472222221</v>
+      </c>
+      <c r="B247" s="3">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45225.250138888892</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45225.291805555556</v>
+      </c>
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>157.19999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45225.333472222221</v>
+      </c>
+      <c r="B250" s="3">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45225.375138888892</v>
+      </c>
+      <c r="B251" s="3">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>156.9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45225.416805555556</v>
+      </c>
+      <c r="B252" s="3">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45225.458472222221</v>
+      </c>
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45225.500138888892</v>
+      </c>
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45225.541805555556</v>
+      </c>
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45225.583472222221</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45225.625138888892</v>
+      </c>
+      <c r="B257" s="3">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45225.666805555556</v>
+      </c>
+      <c r="B258" s="3">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>156.5</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/UHE BALBINA UATUMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4EE5D273-106B-4F8C-860D-2C316E99F89D}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{221B25B3-9372-44EB-818B-07330F7CC9C0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="G243" sqref="G243"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="F268" sqref="F268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,6 +3195,215 @@
         <v>156.5</v>
       </c>
     </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45225.708472222221</v>
+      </c>
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45225.750138888892</v>
+      </c>
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45225.791805555556</v>
+      </c>
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45225.833472222221</v>
+      </c>
+      <c r="B262" s="3">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45225.875138888892</v>
+      </c>
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45225.916805555556</v>
+      </c>
+      <c r="B264" s="3">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45225.958472222221</v>
+      </c>
+      <c r="B265" s="3">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>156.19999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45226.000138888892</v>
+      </c>
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>155.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45226.041805555556</v>
+      </c>
+      <c r="B267" s="3">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45226.083472222221</v>
+      </c>
+      <c r="B268" s="3">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>155.30000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45226.125138888892</v>
+      </c>
+      <c r="B269" s="3">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>155.19999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45226.166805555556</v>
+      </c>
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45226.208472222221</v>
+      </c>
+      <c r="B271" s="3">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45226.250138888892</v>
+      </c>
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45226.291805555556</v>
+      </c>
+      <c r="B273" s="3">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45226.333472222221</v>
+      </c>
+      <c r="B274" s="3">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45226.375138888892</v>
+      </c>
+      <c r="B275" s="3">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45226.416805555556</v>
+      </c>
+      <c r="B276" s="3">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45226.458472222221</v>
+      </c>
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>153.6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="A2:A25"/>
